--- a/game/Resources/DB/Excel/cell_war_scene.xlsx
+++ b/game/Resources/DB/Excel/cell_war_scene.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,22 @@
   </si>
   <si>
     <t>cellY:string:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20,20,20,100,100,100,20,20,20,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100,100,0,0,0,-100,-100,-100,-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-250,-100,100,250,-175,0,175,-250,-100,100,250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2,2,2,3,1,1,1,2,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,18 +469,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -550,6 +568,23 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/game/Resources/DB/Excel/cell_war_scene.xlsx
+++ b/game/Resources/DB/Excel/cell_war_scene.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,22 @@
   </si>
   <si>
     <t>1,1,2,2,2,3,1,1,1,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star:string:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,60,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,60,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级(时间S)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="A9:E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,10 +498,11 @@
     <col min="3" max="3" width="39.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,8 +518,11 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -518,8 +538,11 @@
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -535,8 +558,11 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -552,8 +578,11 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -569,8 +598,11 @@
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,6 +617,9 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/game/Resources/DB/Excel/cell_war_scene.xlsx
+++ b/game/Resources/DB/Excel/cell_war_scene.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,14 @@
   </si>
   <si>
     <t>星级(时间S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleTime:int:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI计算时间间隔(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -499,10 +507,11 @@
     <col min="4" max="4" width="51.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,8 +530,11 @@
       <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -541,8 +553,11 @@
       <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -561,8 +576,11 @@
       <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G3" s="1">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -581,8 +599,11 @@
       <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G4" s="1">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -601,8 +622,11 @@
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G5" s="1">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -620,6 +644,9 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
